--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CellEffect.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/CellEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1251BD2-568D-4622-831E-025058D11785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10DBFE-84D7-4A9E-BF2A-A82614C434ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellEffect" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
